--- a/Project Proposal Template.xlsx
+++ b/Project Proposal Template.xlsx
@@ -1,32 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Online-Market-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Online-Market-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64723DA-C2C6-4033-A992-6A8CCC108ABF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D985DA9-5E86-49B8-B401-6CF391A854A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group Information" sheetId="1" r:id="rId1"/>
     <sheet name="Function List" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>Order</t>
   </si>
@@ -68,13 +76,91 @@
   </si>
   <si>
     <t>Topic Reference</t>
+  </si>
+  <si>
+    <t>Online Market Project</t>
+  </si>
+  <si>
+    <t>Student's Name</t>
+  </si>
+  <si>
+    <t>Function Discription</t>
+  </si>
+  <si>
+    <t>Estimated Hours</t>
+  </si>
+  <si>
+    <t>Xuân Phước</t>
+  </si>
+  <si>
+    <t>Thịnh Phước</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>View &amp; Deposit Money In User Account</t>
+  </si>
+  <si>
+    <t>View Profile User Info</t>
+  </si>
+  <si>
+    <t>Edit Profile User Info</t>
+  </si>
+  <si>
+    <t>Add Items In User Shopping Cart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy Items (Goods) </t>
+  </si>
+  <si>
+    <t>Sign- Up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See How Much Money User Have Spent &amp; Watch Buy Items </t>
+  </si>
+  <si>
+    <t>Cancel Order</t>
+  </si>
+  <si>
+    <t>Tụi Em Tự Nghĩ Ra ý Tưởng,Mô Hình Và Chức Năng giống Amazon và Tiki thời kì đầu (Mua Hàng Về Trữ Trong Kho Và Bán)</t>
+  </si>
+  <si>
+    <t>Thái Sơn</t>
+  </si>
+  <si>
+    <t>Văn Nguyên</t>
+  </si>
+  <si>
+    <t>Remove Items</t>
+  </si>
+  <si>
+    <t>Add New Items</t>
+  </si>
+  <si>
+    <t>Edit Wrong Info Items</t>
+  </si>
+  <si>
+    <t>Block &amp; Remove User Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statistic Total Revenue </t>
+  </si>
+  <si>
+    <t>Collect &amp; Create File Csv Data (Goods File)</t>
+  </si>
+  <si>
+    <t>Graphic User Interface (GUI)</t>
+  </si>
+  <si>
+    <t>Gom Code Và Tổng Hợp Chương Trình Full</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,8 +201,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="13"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,8 +262,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -198,23 +343,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -498,101 +660,101 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C7:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="19.7109375" customWidth="1"/>
     <col min="5" max="5" width="24.85546875" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" customWidth="1"/>
+    <col min="6" max="6" width="41.140625" customWidth="1"/>
     <col min="7" max="7" width="32.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="3:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="3:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C8" s="5">
+      <c r="C8" s="2">
         <v>1</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="2">
         <v>19127518</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="5">
-        <v>30</v>
+      <c r="G8" s="2">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="3:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C9" s="5">
+      <c r="C9" s="2">
         <v>2</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="2">
         <v>19127516</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="5">
-        <v>30</v>
+      <c r="G9" s="2">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="3:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C10" s="5">
+      <c r="C10" s="2">
         <v>3</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="2">
         <v>19127226</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="5">
-        <v>30</v>
+      <c r="G10" s="2">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="3:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C11" s="5">
+      <c r="C11" s="2">
         <v>4</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="2">
         <v>19127541</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="5">
-        <v>30</v>
+      <c r="G11" s="2">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -608,32 +770,349 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01863E4C-2DA0-483B-8B75-5CCDC0A61527}">
-  <dimension ref="D2:E3"/>
+  <dimension ref="D2:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="C1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
+    <col min="6" max="6" width="60.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D2" s="2" t="s">
+    <row r="2" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D3" s="3"/>
-      <c r="E3" s="1"/>
+      <c r="E2" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D3" s="5"/>
+      <c r="E3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="6" spans="4:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D8" s="8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D9" s="8">
+        <v>3</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D10" s="8">
+        <v>4</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D11" s="8">
+        <v>5</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D12" s="8">
+        <v>6</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D13" s="8">
+        <v>7</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D14" s="8">
+        <v>8</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D15" s="8">
+        <v>9</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D16" s="8">
+        <v>10</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D17" s="8">
+        <v>11</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D18" s="8">
+        <v>12</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D19" s="8">
+        <v>13</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D20" s="8">
+        <v>14</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D21" s="8">
+        <v>15</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D22" s="8">
+        <v>16</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D23" s="8">
+        <v>17</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D24" s="8">
+        <v>18</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D25" s="8">
+        <v>19</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D26" s="8">
+        <v>20</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D27" s="8">
+        <v>21</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="9">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D2:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project Proposal Template.xlsx
+++ b/Project Proposal Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Online-Market-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D985DA9-5E86-49B8-B401-6CF391A854A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84ECBC72-E086-4171-A65C-598686602BE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group Information" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t>Order</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>Gom Code Và Tổng Hợp Chương Trình Full</t>
+  </si>
+  <si>
+    <t>Log Out</t>
   </si>
 </sst>
 </file>
@@ -364,12 +367,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -377,6 +374,12 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -660,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C7:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,7 +723,7 @@
         <v>9</v>
       </c>
       <c r="G9" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="3:7" ht="17.25" x14ac:dyDescent="0.3">
@@ -733,7 +736,7 @@
       <c r="E10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2">
@@ -770,10 +773,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01863E4C-2DA0-483B-8B75-5CCDC0A61527}">
-  <dimension ref="D2:G27"/>
+  <dimension ref="D2:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="96" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,326 +788,340 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D3" s="5"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="6" spans="4:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>1</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>2</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>3</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D10" s="6">
+        <v>4</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G10" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D10" s="8">
+    <row r="11" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D11" s="6">
+        <v>5</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="6">
         <v>4</v>
       </c>
-      <c r="E10" s="8" t="s">
+    </row>
+    <row r="12" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D12" s="6">
+        <v>6</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D13" s="6">
+        <v>7</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D14" s="6">
+        <v>8</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D15" s="6">
+        <v>9</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D16" s="6">
+        <v>10</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D17" s="6">
+        <v>11</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D18" s="6">
+        <v>12</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D19" s="6">
+        <v>13</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D20" s="6">
+        <v>14</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D21" s="6">
+        <v>15</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D22" s="6">
+        <v>16</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D23" s="6">
+        <v>17</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D24" s="6">
+        <v>18</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D25" s="6">
+        <v>19</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D26" s="6">
+        <v>20</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D27" s="6">
         <v>21</v>
       </c>
-      <c r="G10" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D11" s="8">
-        <v>5</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D12" s="8">
-        <v>6</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="E27" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F27" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D28" s="6">
         <v>22</v>
       </c>
-      <c r="G12" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D13" s="8">
-        <v>7</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D14" s="8">
-        <v>8</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D15" s="8">
-        <v>9</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D16" s="8">
-        <v>10</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D17" s="8">
-        <v>11</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D18" s="8">
-        <v>12</v>
-      </c>
-      <c r="E18" s="8" t="s">
+      <c r="E28" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D19" s="8">
-        <v>13</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D20" s="8">
-        <v>14</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D21" s="8">
-        <v>15</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D22" s="8">
-        <v>16</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D23" s="8">
-        <v>17</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D24" s="8">
-        <v>18</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D25" s="8">
-        <v>19</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D26" s="8">
-        <v>20</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" s="8" t="s">
+      <c r="F28" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D27" s="8">
-        <v>21</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="9">
+      <c r="G28" s="7">
         <v>4</v>
       </c>
     </row>

--- a/Project Proposal Template.xlsx
+++ b/Project Proposal Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Online-Market-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84ECBC72-E086-4171-A65C-598686602BE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7E497F-A5C7-4ED0-A823-902351BDBC86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
   <si>
     <t>Order</t>
   </si>
@@ -123,9 +123,6 @@
     <t>Cancel Order</t>
   </si>
   <si>
-    <t>Tụi Em Tự Nghĩ Ra ý Tưởng,Mô Hình Và Chức Năng giống Amazon và Tiki thời kì đầu (Mua Hàng Về Trữ Trong Kho Và Bán)</t>
-  </si>
-  <si>
     <t>Thái Sơn</t>
   </si>
   <si>
@@ -157,13 +154,32 @@
   </si>
   <si>
     <t>Log Out</t>
+  </si>
+  <si>
+    <r>
+      <t>Tham Khảo Ý Tưởng :</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> https://www.codewithc.com/supermarket-billing-system-project-in-c/</t>
+    </r>
+  </si>
+  <si>
+    <t>Mô Hình Và Chức Năng giống Amazon và Tiki thời kì đầu (Mua Hàng Về Trữ Trong Kho Và Bán)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +261,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -362,7 +386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -380,6 +404,8 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -775,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01863E4C-2DA0-483B-8B75-5CCDC0A61527}">
   <dimension ref="D2:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="96" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,13 +821,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D3" s="12"/>
       <c r="E3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="F3" s="14"/>
       <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E4" s="13" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="4:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D6" s="5" t="s">
@@ -825,7 +856,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" s="6">
         <v>5</v>
@@ -853,7 +884,7 @@
         <v>18</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" s="6">
         <v>2</v>
@@ -906,7 +937,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>22</v>
@@ -990,10 +1021,10 @@
         <v>13</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G19" s="6">
         <v>6</v>
@@ -1004,10 +1035,10 @@
         <v>14</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G20" s="6">
         <v>6</v>
@@ -1018,10 +1049,10 @@
         <v>15</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G21" s="6">
         <v>6</v>
@@ -1032,10 +1063,10 @@
         <v>16</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" s="6">
         <v>5</v>
@@ -1046,10 +1077,10 @@
         <v>17</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G23" s="6">
         <v>6</v>
@@ -1060,10 +1091,10 @@
         <v>18</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24" s="6">
         <v>6</v>
@@ -1074,10 +1105,10 @@
         <v>19</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G25" s="6">
         <v>10</v>
@@ -1088,10 +1119,10 @@
         <v>20</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G26" s="6">
         <v>10</v>
@@ -1102,10 +1133,10 @@
         <v>21</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27" s="6">
         <v>3</v>
@@ -1116,10 +1147,10 @@
         <v>22</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G28" s="7">
         <v>4</v>
